--- a/Justificaciones-de-Decisiones-para-TP-Anual.xlsx
+++ b/Justificaciones-de-Decisiones-para-TP-Anual.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josec\Documents\Diseño\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josec\git\TPdds2020_Grupo8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D96FA88-8FD4-40EB-8070-02E8EC416EFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B777A2B8-D43B-4C6E-9D30-0A3849603995}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="35">
   <si>
     <t>Decisión</t>
   </si>
@@ -99,6 +99,33 @@
   </si>
   <si>
     <t>Ya que los requerimientos pueden ser para las base o las juridicas, se generó una clase "organización", de la que hereda las entidades.</t>
+  </si>
+  <si>
+    <t>Categorizacion</t>
+  </si>
+  <si>
+    <t>Creamos constantes de personal y de ventas y las mapeamos según la actividad</t>
+  </si>
+  <si>
+    <t>Compra</t>
+  </si>
+  <si>
+    <t>Se crea una compra la cual representa el deseo de comprar y conlleva  las operaciones egreso como los presupuestos con los que se opero.</t>
+  </si>
+  <si>
+    <t>Que directamente la operación egreso sepa sobre sus presupuesto</t>
+  </si>
+  <si>
+    <t>Asi se genera una mayor cohesión.</t>
+  </si>
+  <si>
+    <t>Es prolijo y más comprensible.</t>
+  </si>
+  <si>
+    <t>Bandeja de Mensajes</t>
+  </si>
+  <si>
+    <t>Hay una bandeja de mensajes por usuario, la cual podrá tener los distintos tipos de msj. Para informar por ejemplo la validacion de un presupuesto.</t>
   </si>
 </sst>
 </file>
@@ -510,14 +537,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="24.85546875" customWidth="1"/>
-    <col min="3" max="3" width="120.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="133.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="55.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="81.85546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -593,7 +620,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>17</v>
@@ -636,32 +663,58 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
+      <c r="A8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+      <c r="E8" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
+      <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
+      <c r="A10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="E10" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+      <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>

--- a/Justificaciones-de-Decisiones-para-TP-Anual.xlsx
+++ b/Justificaciones-de-Decisiones-para-TP-Anual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josec\git\TPdds2020_Grupo8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B777A2B8-D43B-4C6E-9D30-0A3849603995}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA50054A-C591-4D9C-8CBE-5DF2C23057D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="51">
   <si>
     <t>Decisión</t>
   </si>
@@ -56,9 +56,6 @@
     <t>Leer de manera lineal un archivo con las 10 mil contraseñas más utilizadas. Si la pass del usuario está en el archivo, no te deja crearlo</t>
   </si>
   <si>
-    <t>Se podría haber utilizado otros algoritmos para recorrer el archivo</t>
-  </si>
-  <si>
     <t xml:space="preserve">Preferimos no complicarlo y hacer que lea el archivo con una secuencia lineal. </t>
   </si>
   <si>
@@ -125,14 +122,65 @@
     <t>Bandeja de Mensajes</t>
   </si>
   <si>
-    <t>Hay una bandeja de mensajes por usuario, la cual podrá tener los distintos tipos de msj. Para informar por ejemplo la validacion de un presupuesto.</t>
+    <t>ValidadorContraseña</t>
+  </si>
+  <si>
+    <t>Se eligio hacer un singleton ya que es solo unobjeto el cual se hará cargo de verificar las contraseñas.</t>
+  </si>
+  <si>
+    <t>El singleton nos permite asegurar que solo un objeto es creado.</t>
+  </si>
+  <si>
+    <t>Usuario, Topes de vts y personal</t>
+  </si>
+  <si>
+    <t>Para el manejo de contraseñas y de topes, se agregaron excepsiones para informar sobre los errores.</t>
+  </si>
+  <si>
+    <t>Imprimir por pantalla para informar el error.</t>
+  </si>
+  <si>
+    <t>Es prolijo y permite una atención diferente del error.</t>
+  </si>
+  <si>
+    <t>Hay una bandeja de mensajes por usuario, la cual podrá tener los distintos tipos de msj. Para informar por ejemplo la validacion de un presupuesto. (cada tipo hereda de mensaje)</t>
+  </si>
+  <si>
+    <t>No diferenciar los tipos de mensajes, se podría estar sobre diseñando.</t>
+  </si>
+  <si>
+    <t>Facilita el creacion y el manejo de nuevos mensajes que surjan en el futuro.</t>
+  </si>
+  <si>
+    <t>Otra algoritmo para recorrer el txt o tener en el sistema todas las palabras en un array y revisar ahí.</t>
+  </si>
+  <si>
+    <t>La compra tiene un presupuesto elegido como atributo</t>
+  </si>
+  <si>
+    <t>Se genero un objeto que tenga toda la logica que corresponde a la validación</t>
+  </si>
+  <si>
+    <t>Que la validación la haga la propia compra</t>
+  </si>
+  <si>
+    <t>Mayor cohesion</t>
+  </si>
+  <si>
+    <t>ValidadorTransparencia</t>
+  </si>
+  <si>
+    <t>Al saber que presupuesto se tomo en consideración faciliza las validaciones.</t>
+  </si>
+  <si>
+    <t>ENTREGA 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -144,14 +192,6 @@
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -195,8 +235,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -535,17 +577,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="24.85546875" customWidth="1"/>
-    <col min="3" max="3" width="133.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="55.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="162" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="89.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="81.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -586,16 +629,16 @@
         <v>8</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -609,10 +652,10 @@
         <v>10</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -620,31 +663,31 @@
         <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -652,10 +695,10 @@
         <v>8</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2" t="s">
@@ -664,85 +707,139 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>29</v>
+        <v>36</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>34</v>
+        <v>25</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
+      <c r="C11" s="4" t="s">
+        <v>50</v>
+      </c>
       <c r="D11" s="2"/>
-      <c r="E11" s="3"/>
+      <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
+      <c r="A12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="4"/>
+      <c r="A13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
+      <c r="A14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+      <c r="E14" s="3" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
+      <c r="A15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Justificaciones-de-Decisiones-para-TP-Anual.xlsx
+++ b/Justificaciones-de-Decisiones-para-TP-Anual.xlsx
@@ -8,19 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josec\git\TPdds2020_Grupo8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA50054A-C591-4D9C-8CBE-5DF2C23057D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AE20992-8790-4111-805C-8C1F451F1EC3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="59">
   <si>
     <t>Decisión</t>
   </si>
@@ -125,9 +135,6 @@
     <t>ValidadorContraseña</t>
   </si>
   <si>
-    <t>Se eligio hacer un singleton ya que es solo unobjeto el cual se hará cargo de verificar las contraseñas.</t>
-  </si>
-  <si>
     <t>El singleton nos permite asegurar que solo un objeto es creado.</t>
   </si>
   <si>
@@ -158,9 +165,6 @@
     <t>La compra tiene un presupuesto elegido como atributo</t>
   </si>
   <si>
-    <t>Se genero un objeto que tenga toda la logica que corresponde a la validación</t>
-  </si>
-  <si>
     <t>Que la validación la haga la propia compra</t>
   </si>
   <si>
@@ -174,13 +178,43 @@
   </si>
   <si>
     <t>ENTREGA 2</t>
+  </si>
+  <si>
+    <t>Se genero un objeto que tenga toda la logica que corresponde a la validación de la operación egreso y el presupuesto.</t>
+  </si>
+  <si>
+    <t>Se eligio hacer un singleton ya que es solo un objeto SEPARADO el cual se hará cargo de verificar las contraseñas.</t>
+  </si>
+  <si>
+    <t>Que la validación de la contraseña la haga el objeto usuario.</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>Este tiene una descripcion, un valor y una cantidad. Además tiene un metodo precioTotal.</t>
+  </si>
+  <si>
+    <t>Tener un obj producto y que el item sea uno o varios productos</t>
+  </si>
+  <si>
+    <t>Los items no son el objeto principal del sist. Despues el precio total va como metodo y no como atributo porque es interesante poder llamarlo.</t>
+  </si>
+  <si>
+    <t>ENTREGA 3</t>
+  </si>
+  <si>
+    <t>ENTREGA 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ¿cómo relacionan los ítems del presupuesto y la compra?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -190,19 +224,53 @@
     </font>
     <font>
       <b/>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -225,23 +293,105 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Celda de comprobación" xfId="2" builtinId="23"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Salida" xfId="1" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -577,10 +727,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" topLeftCell="C11" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -589,257 +739,321 @@
     <col min="2" max="2" width="29.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="162" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="89.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="81.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="129.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" ht="45.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2" t="s">
+      <c r="D3" s="5"/>
+      <c r="E3" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="D16" s="1"/>
+      <c r="E16" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
+      <c r="B18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Justificaciones-de-Decisiones-para-TP-Anual.xlsx
+++ b/Justificaciones-de-Decisiones-para-TP-Anual.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josec\git\TPdds2020_Grupo8\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Igna\Documents\UTN Sistemas\Diseño de Sistemas\TP Anual\TPdds2020_Grupo8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AE20992-8790-4111-805C-8C1F451F1EC3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA03D986-BC23-4234-80A0-09B3F29805BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="61">
   <si>
     <t>Decisión</t>
   </si>
@@ -207,14 +207,20 @@
     <t>ENTREGA 1</t>
   </si>
   <si>
-    <t xml:space="preserve"> ¿cómo relacionan los ítems del presupuesto y la compra?</t>
+    <t>Para esta entrega (y hasta tanto exista persistencia de datos en una DB) los items del presupuesto, de la compra y de la operación de egreso se relacionan por su descripción. Se crea un item a la hora de cargar el presupuesto y otro a la hora de cargar la compra y al momento de relacionarlos se analiza su descripción.</t>
+  </si>
+  <si>
+    <t>Utilizar un identificador único</t>
+  </si>
+  <si>
+    <t>A futuro se hará el modelado de datos en una base de datos relacional correspondiente y podremos realizar una mejor asociación de los items correspondientes a las 3 entidades antes mencionadas. Para esta entrega se consideró que está es una decisión aceptable por las limitaciones en las tecnologías que implementamos. Cuando llegue el momento de realizar la persistencia de la información, se analizará cuál es el modelo más adecuado para implementar esto, con el menor impacto posible en la lógica de las entidades</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -245,8 +251,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -261,12 +273,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -368,7 +374,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -380,13 +386,19 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Celda de comprobación" xfId="2" builtinId="23"/>
@@ -729,8 +741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C11" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1005,23 +1017,27 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
+      <c r="D18" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="7" t="s">
         <v>56</v>
       </c>
       <c r="D19" s="1"/>
@@ -1044,7 +1060,7 @@
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
-      <c r="C22" s="9"/>
+      <c r="C22" s="8"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
     </row>

--- a/Justificaciones-de-Decisiones-para-TP-Anual.xlsx
+++ b/Justificaciones-de-Decisiones-para-TP-Anual.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Igna\Documents\UTN Sistemas\Diseño de Sistemas\TP Anual\TPdds2020_Grupo8\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josec\git\TPdds2020_Grupo8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA03D986-BC23-4234-80A0-09B3F29805BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C8BC839-8715-4874-BBA7-226839C6EA05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="72">
   <si>
     <t>Decisión</t>
   </si>
@@ -214,13 +214,46 @@
   </si>
   <si>
     <t>A futuro se hará el modelado de datos en una base de datos relacional correspondiente y podremos realizar una mejor asociación de los items correspondientes a las 3 entidades antes mencionadas. Para esta entrega se consideró que está es una decisión aceptable por las limitaciones en las tecnologías que implementamos. Cuando llegue el momento de realizar la persistencia de la información, se analizará cuál es el modelo más adecuado para implementar esto, con el menor impacto posible en la lógica de las entidades</t>
+  </si>
+  <si>
+    <t>OperacionIngreso</t>
+  </si>
+  <si>
+    <t>No hereda de operación aun, hace falta una clase intermedia como tenemos con la opEgreso (compra). Pero se relaciona con la organización, quien  colecciona una lista de operaciones ingreso.</t>
+  </si>
+  <si>
+    <t>no diferenciar los tipos de mensajes, se podría estar sobre diseñando.</t>
+  </si>
+  <si>
+    <t>Creemos que debe estar al mismo "nivel" que operación egreso, por lo que aun nos falta el objeto intermedio entre el ingreso y operación.</t>
+  </si>
+  <si>
+    <t>La clase tiene una lista de opEgreso.</t>
+  </si>
+  <si>
+    <t>Que sea en  la operación Egreso la lista</t>
+  </si>
+  <si>
+    <t>Como aun no sabemos que es lo que las relaciona, una lista es una manera prolija de agruparlas.</t>
+  </si>
+  <si>
+    <t>Clasificación</t>
+  </si>
+  <si>
+    <t>La clase tiene una autoreferencia para la clasificiacion padre.</t>
+  </si>
+  <si>
+    <t>Hace clases clasificaciónPadre y clasificaciónHijo</t>
+  </si>
+  <si>
+    <t>Simplifica la operacion y además tanto clasificacion padre e hijo harían lo mismo. (Le cambiamos el nombre de categoria a clasificacion para no repetir las de las organizaciones ya que ellas estan establecidas por AFIP y esto es algo propio del negocio.)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -246,16 +279,35 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -276,7 +328,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -368,13 +420,69 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -389,15 +497,28 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -739,17 +860,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:Z26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.85546875" customWidth="1"/>
     <col min="2" max="2" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="162" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="174" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="89.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="129.5703125" bestFit="1" customWidth="1"/>
   </cols>
@@ -1000,7 +1121,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
@@ -1017,24 +1138,24 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" s="11" t="s">
+    <row r="18" spans="1:26" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="E18" s="8" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="7" t="s">
@@ -1043,34 +1164,88 @@
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="16"/>
+      <c r="N22" s="16"/>
+      <c r="O22" s="16"/>
+      <c r="P22" s="16"/>
+      <c r="Q22" s="16"/>
+      <c r="R22" s="16"/>
+      <c r="S22" s="16"/>
+      <c r="T22" s="16"/>
+      <c r="U22" s="16"/>
+      <c r="V22" s="16"/>
+      <c r="W22" s="16"/>
+      <c r="X22" s="16"/>
+      <c r="Y22" s="16"/>
+      <c r="Z22" s="16"/>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="2"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
     </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="E26" s="11"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Justificaciones-de-Decisiones-para-TP-Anual.xlsx
+++ b/Justificaciones-de-Decisiones-para-TP-Anual.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josec\git\TPdds2020_Grupo8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C8BC839-8715-4874-BBA7-226839C6EA05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{737113E7-FF7B-42CF-B2A9-C2571EF7B363}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="80">
   <si>
     <t>Decisión</t>
   </si>
@@ -247,6 +247,30 @@
   </si>
   <si>
     <t>Simplifica la operacion y además tanto clasificacion padre e hijo harían lo mismo. (Le cambiamos el nombre de categoria a clasificacion para no repetir las de las organizaciones ya que ellas estan establecidas por AFIP y esto es algo propio del negocio.)</t>
+  </si>
+  <si>
+    <t>ENTREGA 4</t>
+  </si>
+  <si>
+    <t>Vinculador</t>
+  </si>
+  <si>
+    <t>La organización decide una sola duración para la vinculación de un ingreso.</t>
+  </si>
+  <si>
+    <t>Cada ingreso tenga su propia duración del periodo de vinculación.</t>
+  </si>
+  <si>
+    <t>Es más sencillo a la implementación.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Varios egresos corresponden a un ingreso. Pero nunca un egreso va a corresponder a varios ingresos</t>
+  </si>
+  <si>
+    <t>En base al mail de Luciano Straccia "[utndds2020] Entrega 4: vinculación entre ingresos y egresos".</t>
+  </si>
+  <si>
+    <t>Que varios egresos tengan varios ingresos.</t>
   </si>
 </sst>
 </file>
@@ -433,36 +457,6 @@
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
         <color rgb="FFCCCCCC"/>
       </left>
       <right style="medium">
@@ -476,13 +470,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -506,20 +526,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Celda de comprobación" xfId="2" builtinId="23"/>
@@ -860,10 +883,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z26"/>
+  <dimension ref="A1:Z38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" topLeftCell="D14" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1185,7 +1208,7 @@
       <c r="A21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="11" t="s">
         <v>61</v>
       </c>
       <c r="C21" s="2" t="s">
@@ -1214,37 +1237,161 @@
       <c r="E22" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="16"/>
-      <c r="L22" s="16"/>
-      <c r="M22" s="16"/>
-      <c r="N22" s="16"/>
-      <c r="O22" s="16"/>
-      <c r="P22" s="16"/>
-      <c r="Q22" s="16"/>
-      <c r="R22" s="16"/>
-      <c r="S22" s="16"/>
-      <c r="T22" s="16"/>
-      <c r="U22" s="16"/>
-      <c r="V22" s="16"/>
-      <c r="W22" s="16"/>
-      <c r="X22" s="16"/>
-      <c r="Y22" s="16"/>
-      <c r="Z22" s="16"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="12"/>
+      <c r="R22" s="12"/>
+      <c r="S22" s="12"/>
+      <c r="T22" s="12"/>
+      <c r="U22" s="12"/>
+      <c r="V22" s="12"/>
+      <c r="W22" s="12"/>
+      <c r="X22" s="12"/>
+      <c r="Y22" s="12"/>
+      <c r="Z22" s="12"/>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
-      <c r="C23" s="2"/>
+      <c r="C23" s="16" t="s">
+        <v>72</v>
+      </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
     </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" t="s">
+        <v>77</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="E26" s="11"/>
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="17"/>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Justificaciones-de-Decisiones-para-TP-Anual.xlsx
+++ b/Justificaciones-de-Decisiones-para-TP-Anual.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josec\git\TPdds2020_Grupo8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{737113E7-FF7B-42CF-B2A9-C2571EF7B363}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D1AA219-6983-4337-9303-BDF2151905F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
   <si>
     <t>Decisión</t>
   </si>
@@ -271,6 +271,72 @@
   </si>
   <si>
     <t>Que varios egresos tengan varios ingresos.</t>
+  </si>
+  <si>
+    <t>Persistencia</t>
+  </si>
+  <si>
+    <t>Proveedor</t>
+  </si>
+  <si>
+    <t>Decidimos hacer un single class ya que no se diferencian mucho los distintos proveedores.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Para que toda la informacion de TODOS los</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>proveedores estuviera junta y sea fácil de consultar.</t>
+    </r>
+  </si>
+  <si>
+    <t>Categoria</t>
+  </si>
+  <si>
+    <t>EntidadJuridica y entidad base</t>
+  </si>
+  <si>
+    <t>Decidimos hacer un single class de todas las categorias.</t>
+  </si>
+  <si>
+    <t>Table per class por ejemplo o join table.</t>
+  </si>
+  <si>
+    <t>Una single table.</t>
+  </si>
+  <si>
+    <t>Hicimos una clase por cada subclase.</t>
+  </si>
+  <si>
+    <t>Para que toda la informacion de TODOS las categorias estuviera junta y sea fácil de consultar.</t>
+  </si>
+  <si>
+    <t>Al tener por separada la informacion mantenemos la seguridad de la misma, ademas que la informacion de cada subclase es muy distinta</t>
   </si>
 </sst>
 </file>
@@ -334,7 +400,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -349,6 +415,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -502,7 +574,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -543,6 +615,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Celda de comprobación" xfId="2" builtinId="23"/>
@@ -885,8 +958,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D14" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -898,7 +971,7 @@
     <col min="5" max="5" width="129.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="45.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="66" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -1303,29 +1376,63 @@
       </c>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="17"/>
+      <c r="A26" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
+      <c r="A27" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
+      <c r="A28" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
+      <c r="A29" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>85</v>
+      </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>

--- a/Justificaciones-de-Decisiones-para-TP-Anual.xlsx
+++ b/Justificaciones-de-Decisiones-para-TP-Anual.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josec\git\TPdds2020_Grupo8\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cingo\Documents\TPdds2020_Grupo8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D1AA219-6983-4337-9303-BDF2151905F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E0FD752-4A9E-47EC-BA60-951BC44BC964}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="102">
   <si>
     <t>Decisión</t>
   </si>
@@ -277,9 +277,6 @@
   </si>
   <si>
     <t>Proveedor</t>
-  </si>
-  <si>
-    <t>Decidimos hacer un single class ya que no se diferencian mucho los distintos proveedores.</t>
   </si>
   <si>
     <r>
@@ -321,22 +318,55 @@
     <t>EntidadJuridica y entidad base</t>
   </si>
   <si>
-    <t>Decidimos hacer un single class de todas las categorias.</t>
-  </si>
-  <si>
     <t>Table per class por ejemplo o join table.</t>
   </si>
   <si>
     <t>Una single table.</t>
   </si>
   <si>
-    <t>Hicimos una clase por cada subclase.</t>
-  </si>
-  <si>
     <t>Para que toda la informacion de TODOS las categorias estuviera junta y sea fácil de consultar.</t>
   </si>
   <si>
     <t>Al tener por separada la informacion mantenemos la seguridad de la misma, ademas que la informacion de cada subclase es muy distinta</t>
+  </si>
+  <si>
+    <t>Hicimos una herencia Joined</t>
+  </si>
+  <si>
+    <t>Hicimos una herencia table per class</t>
+  </si>
+  <si>
+    <t>Decidimos hacer una herencia single table, de todas las categorias.</t>
+  </si>
+  <si>
+    <t>Decidimos hacer una herencia single table, ya que no se diferencian mucho los distintos proveedores.</t>
+  </si>
+  <si>
+    <t>Ya que ambas entidades tienen muchos atributos en común en la clase padre (Organización) y también varios únicos de cada uno. Entonces la herencia Joined es la mejor opción.</t>
+  </si>
+  <si>
+    <t>Mensajes</t>
+  </si>
+  <si>
+    <t>Hicimos una herencia single table</t>
+  </si>
+  <si>
+    <t>table per class</t>
+  </si>
+  <si>
+    <t>En este caso era la mejor opción unificar todos los tipos de mensaje (aunque actualmente solo haya uno) en una single table, ya que no se diferenciarían mucho unos de otros</t>
+  </si>
+  <si>
+    <t>CityML / CurrencyML</t>
+  </si>
+  <si>
+    <t>Decidimos agregar un ID autoincremental como PK a la hora de persistir las entidades</t>
+  </si>
+  <si>
+    <t>Elegir el id por defecto que trae el API</t>
+  </si>
+  <si>
+    <t>Preferimos asignarle un ID autoincremental ya que se nos hace más cómodo trabajar con una PK autoincremental antes que un id alfanumérico que viene por defecto en el API de ML</t>
   </si>
 </sst>
 </file>
@@ -419,7 +449,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -958,20 +988,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.85546875" customWidth="1"/>
-    <col min="2" max="2" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.88671875" customWidth="1"/>
+    <col min="2" max="2" width="29.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="174" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="89.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="129.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="89.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="155.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="66" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="66" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -988,7 +1018,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="3" t="s">
@@ -997,7 +1027,7 @@
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
@@ -1012,7 +1042,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -1029,7 +1059,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -1046,7 +1076,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -1061,7 +1091,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -1078,7 +1108,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
@@ -1095,7 +1125,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -1110,7 +1140,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -1127,7 +1157,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
@@ -1144,7 +1174,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>18</v>
       </c>
@@ -1159,7 +1189,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="3" t="s">
@@ -1168,7 +1198,7 @@
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
@@ -1185,7 +1215,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>8</v>
       </c>
@@ -1202,7 +1232,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>8</v>
       </c>
@@ -1217,7 +1247,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
@@ -1234,7 +1264,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:26" ht="60" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
         <v>8</v>
       </c>
@@ -1251,7 +1281,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="7" t="s">
@@ -1260,7 +1290,7 @@
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>8</v>
       </c>
@@ -1277,7 +1307,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="21" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>8</v>
       </c>
@@ -1294,7 +1324,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="22" spans="1:26" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:26" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="13" t="s">
         <v>8</v>
       </c>
@@ -1332,7 +1362,7 @@
       <c r="Y22" s="12"/>
       <c r="Z22" s="12"/>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="16" t="s">
@@ -1341,7 +1371,7 @@
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>18</v>
       </c>
@@ -1358,7 +1388,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>18</v>
       </c>
@@ -1375,7 +1405,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>80</v>
       </c>
@@ -1383,33 +1413,33 @@
         <v>81</v>
       </c>
       <c r="C26" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E26" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E26" s="17" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D27" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="E27" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>80</v>
       </c>
@@ -1417,83 +1447,109 @@
         <v>7</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D28" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A29" s="18" t="s">
         <v>80</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-    </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-    </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-    </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>

--- a/Justificaciones-de-Decisiones-para-TP-Anual.xlsx
+++ b/Justificaciones-de-Decisiones-para-TP-Anual.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cingo\Documents\TPdds2020_Grupo8\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Igna\Documents\UTN Sistemas\Diseño de Sistemas\TP Anual\TPdds2020_Grupo8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E0FD752-4A9E-47EC-BA60-951BC44BC964}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7581CA7-BEFA-4E94-A164-689E3906558A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="105">
   <si>
     <t>Decisión</t>
   </si>
@@ -367,6 +367,15 @@
   </si>
   <si>
     <t>Preferimos asignarle un ID autoincremental ya que se nos hace más cómodo trabajar con una PK autoincremental antes que un id alfanumérico que viene por defecto en el API de ML</t>
+  </si>
+  <si>
+    <t>Filtrado por fecha. Hay un límite de N días antes y después como constante en la clase que realiza el filtro</t>
+  </si>
+  <si>
+    <t>Definirlo por base de datos</t>
+  </si>
+  <si>
+    <t>Es un valor de fácil modificación aunque no aumentaría la complejidad incluirlo en alguna tabla de configuración del sistema en futuras entregas</t>
   </si>
 </sst>
 </file>
@@ -988,20 +997,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.88671875" customWidth="1"/>
-    <col min="2" max="2" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="174" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="89.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="155.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="89.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="155.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="66" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="66" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -1018,7 +1027,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="3" t="s">
@@ -1027,7 +1036,7 @@
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
@@ -1042,7 +1051,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -1059,7 +1068,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -1076,7 +1085,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -1091,7 +1100,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -1108,7 +1117,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
@@ -1125,7 +1134,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -1140,7 +1149,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -1157,7 +1166,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
@@ -1174,7 +1183,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>18</v>
       </c>
@@ -1189,7 +1198,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="3" t="s">
@@ -1198,7 +1207,7 @@
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
@@ -1215,7 +1224,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>8</v>
       </c>
@@ -1232,7 +1241,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>8</v>
       </c>
@@ -1247,7 +1256,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
@@ -1264,7 +1273,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:26" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:26" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>8</v>
       </c>
@@ -1281,7 +1290,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="7" t="s">
@@ -1290,7 +1299,7 @@
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>8</v>
       </c>
@@ -1307,7 +1316,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="21" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>8</v>
       </c>
@@ -1324,7 +1333,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="22" spans="1:26" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:26" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="13" t="s">
         <v>8</v>
       </c>
@@ -1362,7 +1371,7 @@
       <c r="Y22" s="12"/>
       <c r="Z22" s="12"/>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="16" t="s">
@@ -1371,7 +1380,7 @@
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>18</v>
       </c>
@@ -1388,7 +1397,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>18</v>
       </c>
@@ -1405,7 +1414,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>80</v>
       </c>
@@ -1422,7 +1431,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>80</v>
       </c>
@@ -1439,7 +1448,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>80</v>
       </c>
@@ -1456,7 +1465,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
         <v>80</v>
       </c>
@@ -1473,7 +1482,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>80</v>
       </c>
@@ -1490,7 +1499,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>80</v>
       </c>
@@ -1507,49 +1516,59 @@
         <v>101</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>

--- a/Justificaciones-de-Decisiones-para-TP-Anual.xlsx
+++ b/Justificaciones-de-Decisiones-para-TP-Anual.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Igna\Documents\UTN Sistemas\Diseño de Sistemas\TP Anual\TPdds2020_Grupo8\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josec\git\TPdds2020_Grupo8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7581CA7-BEFA-4E94-A164-689E3906558A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6F70F88-EF68-49D6-93DF-951CCFF7B39D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="119">
   <si>
     <t>Decisión</t>
   </si>
@@ -377,12 +377,54 @@
   <si>
     <t>Es un valor de fácil modificación aunque no aumentaría la complejidad incluirlo en alguna tabla de configuración del sistema en futuras entregas</t>
   </si>
+  <si>
+    <t>ENTREGA 5</t>
+  </si>
+  <si>
+    <t>ENTREGA 6</t>
+  </si>
+  <si>
+    <t>DEFINIR PATRON DE INTERACION</t>
+  </si>
+  <si>
+    <t>Hay una bitacora por usuario. Si este tiene proyectos asociados, podrá visualizarlos allí.</t>
+  </si>
+  <si>
+    <t>Bitacora</t>
+  </si>
+  <si>
+    <t>Que exista una unica y que permitamos a todos los usuarios acceder a toda la información.</t>
+  </si>
+  <si>
+    <t>Para mantener la seguridad de la información, más al ser un tema de dinero obtenido del estado.</t>
+  </si>
+  <si>
+    <t>Existe un proyecto, el cual será registrado en una "OperacionRegitrada" para despues ser guardada en la bitacora.</t>
+  </si>
+  <si>
+    <t>La Bitacora es el unico elemento que se relaciona con la base de datos de Mongo db</t>
+  </si>
+  <si>
+    <t>Proyecto</t>
+  </si>
+  <si>
+    <t>Que toda la información este en una sola clase.</t>
+  </si>
+  <si>
+    <t>Que varias Clases interactuen con la base de datos.</t>
+  </si>
+  <si>
+    <t>Al ser la unica que interactua reducimos la posibilidad de fallas.</t>
+  </si>
+  <si>
+    <t>Menor acoplamiento.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -437,6 +479,13 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -613,7 +662,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -655,6 +704,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Celda de comprobación" xfId="2" builtinId="23"/>
@@ -995,10 +1045,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z38"/>
+  <dimension ref="A1:Z44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" topLeftCell="E23" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1007,7 +1057,7 @@
     <col min="2" max="2" width="29.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="174" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="89.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="155.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="173.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="66" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -1536,14 +1586,20 @@
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
+      <c r="C33" s="16" t="s">
+        <v>105</v>
+      </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
+      <c r="A34" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
+      <c r="C34" s="19" t="s">
+        <v>107</v>
+      </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
     </row>
@@ -1557,23 +1613,97 @@
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
+      <c r="C36" s="16" t="s">
+        <v>106</v>
+      </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
+      <c r="A37" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
+      <c r="A38" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C38" t="s">
+        <v>112</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Justificaciones-de-Decisiones-para-TP-Anual.xlsx
+++ b/Justificaciones-de-Decisiones-para-TP-Anual.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josec\git\TPdds2020_Grupo8\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ignac\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6F70F88-EF68-49D6-93DF-951CCFF7B39D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E544A5A-3CF8-4DEC-97FB-2A02471527D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="125">
   <si>
     <t>Decisión</t>
   </si>
@@ -384,9 +384,6 @@
     <t>ENTREGA 6</t>
   </si>
   <si>
-    <t>DEFINIR PATRON DE INTERACION</t>
-  </si>
-  <si>
     <t>Hay una bitacora por usuario. Si este tiene proyectos asociados, podrá visualizarlos allí.</t>
   </si>
   <si>
@@ -418,13 +415,34 @@
   </si>
   <si>
     <t>Menor acoplamiento.</t>
+  </si>
+  <si>
+    <t>Interacción</t>
+  </si>
+  <si>
+    <t>Uso del patrón MVC para la vinculación del Backend ya creado, con la nueva interfaz gráfica requerida</t>
+  </si>
+  <si>
+    <t>Utilización de otros patrones (MVP/MVVC/etc)</t>
+  </si>
+  <si>
+    <t>Utilizando este patrón logramos una correcta separación de capas, logrando que la lógica de negocio ya creada, no se mezcle con la nueva interfaz gráfica</t>
+  </si>
+  <si>
+    <t>Utilización de Spark para aplicar el patrón MVC</t>
+  </si>
+  <si>
+    <t>Utilizar otro framework, por ej, Spring</t>
+  </si>
+  <si>
+    <t>A nivel técnico, el resultado que se alcanzaría con un Framework o el otro sería similar. Se decidió por Spark ya que consideramos el más práctico para este trabajo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -479,13 +497,6 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -704,7 +715,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Celda de comprobación" xfId="2" builtinId="23"/>
@@ -1047,8 +1058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E23" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1323,7 +1334,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:26" ht="60" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>8</v>
       </c>
@@ -1596,19 +1607,35 @@
       <c r="A34" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B34" s="1"/>
+      <c r="B34" s="1" t="s">
+        <v>118</v>
+      </c>
       <c r="C34" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
+        <v>119</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
+      <c r="A35" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
@@ -1624,16 +1651,16 @@
         <v>8</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D37" s="1" t="s">
+      <c r="E37" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -1641,16 +1668,16 @@
         <v>8</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C38" t="s">
+        <v>111</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C38" t="s">
-        <v>112</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>115</v>
-      </c>
       <c r="E38" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -1658,16 +1685,16 @@
         <v>80</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D39" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E39" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">

--- a/Justificaciones-de-Decisiones-para-TP-Anual.xlsx
+++ b/Justificaciones-de-Decisiones-para-TP-Anual.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ignac\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cingo\Documents\TPdds2020_Grupo8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E544A5A-3CF8-4DEC-97FB-2A02471527D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2690E700-691F-41EE-920D-7FF7789A44D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="128">
   <si>
     <t>Decisión</t>
   </si>
@@ -436,6 +436,15 @@
   </si>
   <si>
     <t>A nivel técnico, el resultado que se alcanzaría con un Framework o el otro sería similar. Se decidió por Spark ya que consideramos el más práctico para este trabajo</t>
+  </si>
+  <si>
+    <t>Consideramos que el que crea un proyecto es su mismo director (usuario)</t>
+  </si>
+  <si>
+    <t>Que haya un campo para elegir el usuario director del nuevo proyecto</t>
+  </si>
+  <si>
+    <t>Es más sencillo.</t>
   </si>
 </sst>
 </file>
@@ -1058,20 +1067,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.85546875" customWidth="1"/>
-    <col min="2" max="2" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.88671875" customWidth="1"/>
+    <col min="2" max="2" width="29.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="174" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="89.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="173.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="89.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="173.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="66" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="66" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -1088,7 +1097,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="3" t="s">
@@ -1097,7 +1106,7 @@
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
@@ -1112,7 +1121,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -1129,7 +1138,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -1146,7 +1155,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -1161,7 +1170,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -1178,7 +1187,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
@@ -1195,7 +1204,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -1210,7 +1219,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -1227,7 +1236,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
@@ -1244,7 +1253,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>18</v>
       </c>
@@ -1259,7 +1268,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="3" t="s">
@@ -1268,7 +1277,7 @@
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
@@ -1285,7 +1294,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>8</v>
       </c>
@@ -1302,7 +1311,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>8</v>
       </c>
@@ -1317,7 +1326,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
@@ -1334,7 +1343,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:26" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
         <v>8</v>
       </c>
@@ -1351,7 +1360,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="7" t="s">
@@ -1360,7 +1369,7 @@
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>8</v>
       </c>
@@ -1377,7 +1386,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="21" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>8</v>
       </c>
@@ -1394,7 +1403,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="22" spans="1:26" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:26" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="13" t="s">
         <v>8</v>
       </c>
@@ -1432,7 +1441,7 @@
       <c r="Y22" s="12"/>
       <c r="Z22" s="12"/>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="16" t="s">
@@ -1441,7 +1450,7 @@
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>18</v>
       </c>
@@ -1458,7 +1467,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>18</v>
       </c>
@@ -1475,7 +1484,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>80</v>
       </c>
@@ -1492,7 +1501,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>80</v>
       </c>
@@ -1509,7 +1518,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>80</v>
       </c>
@@ -1526,7 +1535,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A29" s="18" t="s">
         <v>80</v>
       </c>
@@ -1543,7 +1552,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>80</v>
       </c>
@@ -1560,7 +1569,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>80</v>
       </c>
@@ -1577,7 +1586,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>18</v>
       </c>
@@ -1594,7 +1603,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="16" t="s">
@@ -1603,7 +1612,7 @@
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>18</v>
       </c>
@@ -1620,7 +1629,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>18</v>
       </c>
@@ -1637,7 +1646,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="16" t="s">
@@ -1646,7 +1655,7 @@
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>8</v>
       </c>
@@ -1663,7 +1672,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>8</v>
       </c>
@@ -1680,7 +1689,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>80</v>
       </c>
@@ -1697,35 +1706,45 @@
         <v>116</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
